--- a/data/data_demand.xlsx
+++ b/data/data_demand.xlsx
@@ -1,34 +1,313 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lorenzwagner/Documents/GitHub/columngeneration/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB4D305-6500-E545-BDF3-79F94383BFFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="90">
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>1,3</t>
+  </si>
+  <si>
+    <t>2,1</t>
+  </si>
+  <si>
+    <t>2,2</t>
+  </si>
+  <si>
+    <t>2,3</t>
+  </si>
+  <si>
+    <t>3,1</t>
+  </si>
+  <si>
+    <t>3,2</t>
+  </si>
+  <si>
+    <t>3,3</t>
+  </si>
+  <si>
+    <t>4,1</t>
+  </si>
+  <si>
+    <t>4,2</t>
+  </si>
+  <si>
+    <t>4,3</t>
+  </si>
+  <si>
+    <t>5,1</t>
+  </si>
+  <si>
+    <t>5,2</t>
+  </si>
+  <si>
+    <t>5,3</t>
+  </si>
+  <si>
+    <t>6,1</t>
+  </si>
+  <si>
+    <t>6,2</t>
+  </si>
+  <si>
+    <t>6,3</t>
+  </si>
+  <si>
+    <t>7,1</t>
+  </si>
+  <si>
+    <t>7,2</t>
+  </si>
+  <si>
+    <t>7,3</t>
+  </si>
+  <si>
+    <t>8,1</t>
+  </si>
+  <si>
+    <t>8,2</t>
+  </si>
+  <si>
+    <t>8,3</t>
+  </si>
+  <si>
+    <t>9,1</t>
+  </si>
+  <si>
+    <t>9,2</t>
+  </si>
+  <si>
+    <t>9,3</t>
+  </si>
+  <si>
+    <t>10,1</t>
+  </si>
+  <si>
+    <t>10,2</t>
+  </si>
+  <si>
+    <t>10,3</t>
+  </si>
+  <si>
+    <t>11,1</t>
+  </si>
+  <si>
+    <t>11,2</t>
+  </si>
+  <si>
+    <t>11,3</t>
+  </si>
+  <si>
+    <t>12,1</t>
+  </si>
+  <si>
+    <t>12,2</t>
+  </si>
+  <si>
+    <t>12,3</t>
+  </si>
+  <si>
+    <t>13,1</t>
+  </si>
+  <si>
+    <t>13,2</t>
+  </si>
+  <si>
+    <t>13,3</t>
+  </si>
+  <si>
+    <t>14,1</t>
+  </si>
+  <si>
+    <t>14,2</t>
+  </si>
+  <si>
+    <t>14,3</t>
+  </si>
+  <si>
+    <t>15,1</t>
+  </si>
+  <si>
+    <t>15,2</t>
+  </si>
+  <si>
+    <t>15,3</t>
+  </si>
+  <si>
+    <t>16,1</t>
+  </si>
+  <si>
+    <t>16,2</t>
+  </si>
+  <si>
+    <t>16,3</t>
+  </si>
+  <si>
+    <t>17,1</t>
+  </si>
+  <si>
+    <t>17,2</t>
+  </si>
+  <si>
+    <t>17,3</t>
+  </si>
+  <si>
+    <t>18,1</t>
+  </si>
+  <si>
+    <t>18,2</t>
+  </si>
+  <si>
+    <t>18,3</t>
+  </si>
+  <si>
+    <t>19,1</t>
+  </si>
+  <si>
+    <t>19,2</t>
+  </si>
+  <si>
+    <t>19,3</t>
+  </si>
+  <si>
+    <t>20,1</t>
+  </si>
+  <si>
+    <t>20,2</t>
+  </si>
+  <si>
+    <t>20,3</t>
+  </si>
+  <si>
+    <t>21,1</t>
+  </si>
+  <si>
+    <t>21,2</t>
+  </si>
+  <si>
+    <t>21,3</t>
+  </si>
+  <si>
+    <t>22,1</t>
+  </si>
+  <si>
+    <t>22,2</t>
+  </si>
+  <si>
+    <t>22,3</t>
+  </si>
+  <si>
+    <t>23,1</t>
+  </si>
+  <si>
+    <t>23,2</t>
+  </si>
+  <si>
+    <t>23,3</t>
+  </si>
+  <si>
+    <t>24,1</t>
+  </si>
+  <si>
+    <t>24,2</t>
+  </si>
+  <si>
+    <t>24,3</t>
+  </si>
+  <si>
+    <t>25,1</t>
+  </si>
+  <si>
+    <t>25,2</t>
+  </si>
+  <si>
+    <t>25,3</t>
+  </si>
+  <si>
+    <t>26,1</t>
+  </si>
+  <si>
+    <t>26,2</t>
+  </si>
+  <si>
+    <t>26,3</t>
+  </si>
+  <si>
+    <t>27,1</t>
+  </si>
+  <si>
+    <t>27,2</t>
+  </si>
+  <si>
+    <t>27,3</t>
+  </si>
+  <si>
+    <t>28,1</t>
+  </si>
+  <si>
+    <t>28,2</t>
+  </si>
+  <si>
+    <t>28,3</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Scenario</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -47,80 +326,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -408,2810 +628,2647 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:CH10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CI10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:CI10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Pattern</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>1,1</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>1,3</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>2,1</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>2,2</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>2,3</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>3,1</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>3,2</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>3,3</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>4,1</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>4,2</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>4,3</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>5,1</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>5,2</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>5,3</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>6,1</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>6,2</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>6,3</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>7,1</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>7,2</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>7,3</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>8,1</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>8,2</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>8,3</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>9,1</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>9,2</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>9,3</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>10,1</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>10,2</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>10,3</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>11,1</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>11,2</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>11,3</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>12,1</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>12,2</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>12,3</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>13,1</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>13,2</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>13,3</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>14,1</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>14,2</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>14,3</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>15,1</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>15,2</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>15,3</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>16,1</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>16,2</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>16,3</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>17,1</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>17,2</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>17,3</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>18,1</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>18,2</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>18,3</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>19,1</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>19,2</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>19,3</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>20,1</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>20,2</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>20,3</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>21,1</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>21,2</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>21,3</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>22,1</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>22,2</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>22,3</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>23,1</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>23,2</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>23,3</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>24,1</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>24,2</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>24,3</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>25,1</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>25,2</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>25,3</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>26,1</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>26,2</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>26,3</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>27,1</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>27,2</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>27,3</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>28,1</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>28,2</t>
-        </is>
-      </c>
-      <c r="CH1" t="inlineStr">
-        <is>
-          <t>28,3</t>
-        </is>
+    <row r="1" spans="1:87" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>85</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:87" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>50</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+      <c r="C2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2">
         <v>7</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2">
         <v>29</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2">
         <v>2</v>
       </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
         <v>28</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2">
         <v>13</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2">
         <v>19</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2">
         <v>19</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2">
         <v>17</v>
       </c>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
         <v>34</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2">
         <v>0</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2">
         <v>11</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2">
         <v>25</v>
       </c>
-      <c r="Q2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R2" t="n">
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
         <v>4</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2">
         <v>32</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2">
         <v>0</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2">
         <v>6</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2">
         <v>23</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2">
         <v>15</v>
       </c>
-      <c r="X2" t="n">
+      <c r="Y2">
         <v>14</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Z2">
         <v>24</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="AA2">
         <v>3</v>
       </c>
-      <c r="AA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB2" t="n">
+      <c r="AB2">
+        <v>1</v>
+      </c>
+      <c r="AC2">
         <v>33</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AD2">
         <v>16</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AE2">
         <v>20</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AF2">
         <v>6</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AG2">
         <v>22</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AH2">
         <v>7</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AI2">
         <v>35</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AJ2">
         <v>0</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AK2">
         <v>6</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AL2">
         <v>38</v>
       </c>
-      <c r="AL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM2" t="n">
+      <c r="AM2">
+        <v>1</v>
+      </c>
+      <c r="AN2">
         <v>0</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AO2">
         <v>35</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AP2">
         <v>4</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AQ2">
         <v>2</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AR2">
         <v>32</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AS2">
         <v>5</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="AT2">
         <v>14</v>
       </c>
-      <c r="AT2" t="n">
+      <c r="AU2">
         <v>16</v>
       </c>
-      <c r="AU2" t="n">
+      <c r="AV2">
         <v>4</v>
       </c>
-      <c r="AV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW2" t="n">
+      <c r="AW2">
+        <v>1</v>
+      </c>
+      <c r="AX2">
         <v>22</v>
       </c>
-      <c r="AX2" t="n">
+      <c r="AY2">
         <v>25</v>
       </c>
-      <c r="AY2" t="n">
+      <c r="AZ2">
         <v>8</v>
       </c>
-      <c r="AZ2" t="n">
+      <c r="BA2">
         <v>7</v>
       </c>
-      <c r="BA2" t="n">
+      <c r="BB2">
         <v>22</v>
       </c>
-      <c r="BB2" t="n">
+      <c r="BC2">
         <v>2</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BD2">
         <v>18</v>
       </c>
-      <c r="BD2" t="n">
+      <c r="BE2">
         <v>17</v>
       </c>
-      <c r="BE2" t="n">
+      <c r="BF2">
         <v>10</v>
       </c>
-      <c r="BF2" t="n">
+      <c r="BG2">
         <v>31</v>
       </c>
-      <c r="BG2" t="n">
+      <c r="BH2">
         <v>6</v>
       </c>
-      <c r="BH2" t="n">
+      <c r="BI2">
         <v>12</v>
       </c>
-      <c r="BI2" t="n">
+      <c r="BJ2">
         <v>10</v>
       </c>
-      <c r="BJ2" t="n">
+      <c r="BK2">
         <v>16</v>
       </c>
-      <c r="BK2" t="n">
+      <c r="BL2">
         <v>27</v>
       </c>
-      <c r="BL2" t="n">
+      <c r="BM2">
         <v>2</v>
       </c>
-      <c r="BM2" t="n">
+      <c r="BN2">
         <v>19</v>
       </c>
-      <c r="BN2" t="n">
+      <c r="BO2">
         <v>3</v>
       </c>
-      <c r="BO2" t="n">
+      <c r="BP2">
         <v>31</v>
       </c>
-      <c r="BP2" t="n">
+      <c r="BQ2">
         <v>6</v>
       </c>
-      <c r="BQ2" t="n">
+      <c r="BR2">
         <v>21</v>
       </c>
-      <c r="BR2" t="n">
+      <c r="BS2">
         <v>14</v>
       </c>
-      <c r="BS2" t="n">
+      <c r="BT2">
         <v>14</v>
       </c>
-      <c r="BT2" t="n">
+      <c r="BU2">
         <v>19</v>
       </c>
-      <c r="BU2" t="n">
+      <c r="BV2">
         <v>12</v>
       </c>
-      <c r="BV2" t="n">
+      <c r="BW2">
         <v>17</v>
       </c>
-      <c r="BW2" t="n">
+      <c r="BX2">
         <v>22</v>
       </c>
-      <c r="BX2" t="n">
+      <c r="BY2">
         <v>18</v>
       </c>
-      <c r="BY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ2" t="n">
+      <c r="BZ2">
+        <v>1</v>
+      </c>
+      <c r="CA2">
         <v>31</v>
       </c>
-      <c r="CA2" t="n">
+      <c r="CB2">
         <v>10</v>
       </c>
-      <c r="CB2" t="n">
+      <c r="CC2">
         <v>5</v>
       </c>
-      <c r="CC2" t="n">
+      <c r="CD2">
         <v>5</v>
       </c>
-      <c r="CD2" t="n">
+      <c r="CE2">
         <v>18</v>
       </c>
-      <c r="CE2" t="n">
+      <c r="CF2">
         <v>30</v>
       </c>
-      <c r="CF2" t="n">
+      <c r="CG2">
         <v>8</v>
       </c>
-      <c r="CG2" t="n">
+      <c r="CH2">
         <v>26</v>
       </c>
-      <c r="CH2" t="n">
+      <c r="CI2">
         <v>10</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:87" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
         <v>50</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+      <c r="C3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3">
         <v>9</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3">
         <v>32</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3">
         <v>2</v>
       </c>
-      <c r="F3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
         <v>32</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3">
         <v>14</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3">
         <v>22</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3">
         <v>21</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3">
         <v>18</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3">
         <v>2</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3">
         <v>37</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3">
         <v>0</v>
       </c>
-      <c r="O3" t="n">
+      <c r="P3">
         <v>12</v>
       </c>
-      <c r="P3" t="n">
+      <c r="Q3">
         <v>29</v>
       </c>
-      <c r="Q3" t="n">
-        <v>1</v>
-      </c>
-      <c r="R3" t="n">
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
         <v>4</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3">
         <v>36</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3">
         <v>0</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3">
         <v>7</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3">
         <v>26</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3">
         <v>16</v>
       </c>
-      <c r="X3" t="n">
+      <c r="Y3">
         <v>16</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="Z3">
         <v>27</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="AA3">
         <v>3</v>
       </c>
-      <c r="AA3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB3" t="n">
+      <c r="AB3">
+        <v>1</v>
+      </c>
+      <c r="AC3">
         <v>36</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AD3">
         <v>19</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AE3">
         <v>23</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AF3">
         <v>6</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AG3">
         <v>24</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AH3">
         <v>8</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AI3">
         <v>39</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AJ3">
         <v>0</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AK3">
         <v>7</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AL3">
         <v>43</v>
       </c>
-      <c r="AL3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM3" t="n">
+      <c r="AM3">
+        <v>1</v>
+      </c>
+      <c r="AN3">
         <v>0</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AO3">
         <v>39</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AP3">
         <v>4</v>
       </c>
-      <c r="AP3" t="n">
+      <c r="AQ3">
         <v>2</v>
       </c>
-      <c r="AQ3" t="n">
+      <c r="AR3">
         <v>35</v>
       </c>
-      <c r="AR3" t="n">
+      <c r="AS3">
         <v>6</v>
       </c>
-      <c r="AS3" t="n">
+      <c r="AT3">
         <v>16</v>
       </c>
-      <c r="AT3" t="n">
+      <c r="AU3">
         <v>17</v>
       </c>
-      <c r="AU3" t="n">
+      <c r="AV3">
         <v>5</v>
       </c>
-      <c r="AV3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW3" t="n">
+      <c r="AW3">
+        <v>1</v>
+      </c>
+      <c r="AX3">
         <v>24</v>
       </c>
-      <c r="AX3" t="n">
+      <c r="AY3">
         <v>29</v>
       </c>
-      <c r="AY3" t="n">
+      <c r="AZ3">
         <v>9</v>
       </c>
-      <c r="AZ3" t="n">
+      <c r="BA3">
         <v>8</v>
       </c>
-      <c r="BA3" t="n">
+      <c r="BB3">
         <v>24</v>
       </c>
-      <c r="BB3" t="n">
+      <c r="BC3">
         <v>2</v>
       </c>
-      <c r="BC3" t="n">
+      <c r="BD3">
         <v>21</v>
       </c>
-      <c r="BD3" t="n">
+      <c r="BE3">
         <v>19</v>
       </c>
-      <c r="BE3" t="n">
+      <c r="BF3">
         <v>11</v>
       </c>
-      <c r="BF3" t="n">
+      <c r="BG3">
         <v>35</v>
       </c>
-      <c r="BG3" t="n">
+      <c r="BH3">
         <v>7</v>
       </c>
-      <c r="BH3" t="n">
+      <c r="BI3">
         <v>14</v>
       </c>
-      <c r="BI3" t="n">
+      <c r="BJ3">
         <v>11</v>
       </c>
-      <c r="BJ3" t="n">
+      <c r="BK3">
         <v>17</v>
       </c>
-      <c r="BK3" t="n">
+      <c r="BL3">
         <v>30</v>
       </c>
-      <c r="BL3" t="n">
+      <c r="BM3">
         <v>3</v>
       </c>
-      <c r="BM3" t="n">
+      <c r="BN3">
         <v>21</v>
       </c>
-      <c r="BN3" t="n">
+      <c r="BO3">
         <v>4</v>
       </c>
-      <c r="BO3" t="n">
+      <c r="BP3">
         <v>35</v>
       </c>
-      <c r="BP3" t="n">
+      <c r="BQ3">
         <v>6</v>
       </c>
-      <c r="BQ3" t="n">
+      <c r="BR3">
         <v>24</v>
       </c>
-      <c r="BR3" t="n">
+      <c r="BS3">
         <v>15</v>
       </c>
-      <c r="BS3" t="n">
+      <c r="BT3">
         <v>16</v>
       </c>
-      <c r="BT3" t="n">
+      <c r="BU3">
         <v>21</v>
       </c>
-      <c r="BU3" t="n">
+      <c r="BV3">
         <v>13</v>
       </c>
-      <c r="BV3" t="n">
+      <c r="BW3">
         <v>19</v>
       </c>
-      <c r="BW3" t="n">
+      <c r="BX3">
         <v>24</v>
       </c>
-      <c r="BX3" t="n">
+      <c r="BY3">
         <v>20</v>
       </c>
-      <c r="BY3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ3" t="n">
+      <c r="BZ3">
+        <v>1</v>
+      </c>
+      <c r="CA3">
         <v>35</v>
       </c>
-      <c r="CA3" t="n">
+      <c r="CB3">
         <v>11</v>
       </c>
-      <c r="CB3" t="n">
+      <c r="CC3">
         <v>5</v>
       </c>
-      <c r="CC3" t="n">
+      <c r="CD3">
         <v>6</v>
       </c>
-      <c r="CD3" t="n">
+      <c r="CE3">
         <v>20</v>
       </c>
-      <c r="CE3" t="n">
+      <c r="CF3">
         <v>33</v>
       </c>
-      <c r="CF3" t="n">
+      <c r="CG3">
         <v>9</v>
       </c>
-      <c r="CG3" t="n">
+      <c r="CH3">
         <v>29</v>
       </c>
-      <c r="CH3" t="n">
+      <c r="CI3">
         <v>11</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:87" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
         <v>50</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+      <c r="C4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4">
         <v>9</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4">
         <v>35</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4">
         <v>3</v>
       </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
         <v>35</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4">
         <v>16</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4">
         <v>24</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4">
         <v>23</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4">
         <v>20</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4">
         <v>2</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4">
         <v>41</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4">
         <v>0</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4">
         <v>14</v>
       </c>
-      <c r="P4" t="n">
+      <c r="Q4">
         <v>31</v>
       </c>
-      <c r="Q4" t="n">
-        <v>1</v>
-      </c>
-      <c r="R4" t="n">
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
         <v>4</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4">
         <v>40</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4">
         <v>0</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4">
         <v>8</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4">
         <v>28</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4">
         <v>18</v>
       </c>
-      <c r="X4" t="n">
+      <c r="Y4">
         <v>17</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="Z4">
         <v>30</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="AA4">
         <v>4</v>
       </c>
-      <c r="AA4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB4" t="n">
+      <c r="AB4">
+        <v>1</v>
+      </c>
+      <c r="AC4">
         <v>40</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AD4">
         <v>20</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AE4">
         <v>25</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AF4">
         <v>7</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AG4">
         <v>27</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AH4">
         <v>9</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AI4">
         <v>43</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AJ4">
         <v>0</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AK4">
         <v>8</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AL4">
         <v>47</v>
       </c>
-      <c r="AL4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM4" t="n">
+      <c r="AM4">
+        <v>1</v>
+      </c>
+      <c r="AN4">
         <v>0</v>
       </c>
-      <c r="AN4" t="n">
+      <c r="AO4">
         <v>43</v>
       </c>
-      <c r="AO4" t="n">
+      <c r="AP4">
         <v>4</v>
       </c>
-      <c r="AP4" t="n">
+      <c r="AQ4">
         <v>2</v>
       </c>
-      <c r="AQ4" t="n">
+      <c r="AR4">
         <v>39</v>
       </c>
-      <c r="AR4" t="n">
+      <c r="AS4">
         <v>7</v>
       </c>
-      <c r="AS4" t="n">
+      <c r="AT4">
         <v>18</v>
       </c>
-      <c r="AT4" t="n">
+      <c r="AU4">
         <v>19</v>
       </c>
-      <c r="AU4" t="n">
+      <c r="AV4">
         <v>5</v>
       </c>
-      <c r="AV4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW4" t="n">
+      <c r="AW4">
+        <v>1</v>
+      </c>
+      <c r="AX4">
         <v>26</v>
       </c>
-      <c r="AX4" t="n">
+      <c r="AY4">
         <v>32</v>
       </c>
-      <c r="AY4" t="n">
+      <c r="AZ4">
         <v>10</v>
       </c>
-      <c r="AZ4" t="n">
+      <c r="BA4">
         <v>9</v>
       </c>
-      <c r="BA4" t="n">
+      <c r="BB4">
         <v>27</v>
       </c>
-      <c r="BB4" t="n">
+      <c r="BC4">
         <v>2</v>
       </c>
-      <c r="BC4" t="n">
+      <c r="BD4">
         <v>23</v>
       </c>
-      <c r="BD4" t="n">
+      <c r="BE4">
         <v>21</v>
       </c>
-      <c r="BE4" t="n">
+      <c r="BF4">
         <v>13</v>
       </c>
-      <c r="BF4" t="n">
+      <c r="BG4">
         <v>38</v>
       </c>
-      <c r="BG4" t="n">
+      <c r="BH4">
         <v>7</v>
       </c>
-      <c r="BH4" t="n">
+      <c r="BI4">
         <v>15</v>
       </c>
-      <c r="BI4" t="n">
+      <c r="BJ4">
         <v>12</v>
       </c>
-      <c r="BJ4" t="n">
+      <c r="BK4">
         <v>19</v>
       </c>
-      <c r="BK4" t="n">
+      <c r="BL4">
         <v>33</v>
       </c>
-      <c r="BL4" t="n">
+      <c r="BM4">
         <v>3</v>
       </c>
-      <c r="BM4" t="n">
+      <c r="BN4">
         <v>23</v>
       </c>
-      <c r="BN4" t="n">
+      <c r="BO4">
         <v>4</v>
       </c>
-      <c r="BO4" t="n">
+      <c r="BP4">
         <v>38</v>
       </c>
-      <c r="BP4" t="n">
+      <c r="BQ4">
         <v>7</v>
       </c>
-      <c r="BQ4" t="n">
+      <c r="BR4">
         <v>26</v>
       </c>
-      <c r="BR4" t="n">
+      <c r="BS4">
         <v>17</v>
       </c>
-      <c r="BS4" t="n">
+      <c r="BT4">
         <v>17</v>
       </c>
-      <c r="BT4" t="n">
+      <c r="BU4">
         <v>23</v>
       </c>
-      <c r="BU4" t="n">
+      <c r="BV4">
         <v>15</v>
       </c>
-      <c r="BV4" t="n">
+      <c r="BW4">
         <v>21</v>
       </c>
-      <c r="BW4" t="n">
+      <c r="BX4">
         <v>27</v>
       </c>
-      <c r="BX4" t="n">
+      <c r="BY4">
         <v>22</v>
       </c>
-      <c r="BY4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ4" t="n">
+      <c r="BZ4">
+        <v>1</v>
+      </c>
+      <c r="CA4">
         <v>38</v>
       </c>
-      <c r="CA4" t="n">
+      <c r="CB4">
         <v>12</v>
       </c>
-      <c r="CB4" t="n">
+      <c r="CC4">
         <v>6</v>
       </c>
-      <c r="CC4" t="n">
+      <c r="CD4">
         <v>6</v>
       </c>
-      <c r="CD4" t="n">
+      <c r="CE4">
         <v>22</v>
       </c>
-      <c r="CE4" t="n">
+      <c r="CF4">
         <v>37</v>
       </c>
-      <c r="CF4" t="n">
+      <c r="CG4">
         <v>9</v>
       </c>
-      <c r="CG4" t="n">
+      <c r="CH4">
         <v>32</v>
       </c>
-      <c r="CH4" t="n">
+      <c r="CI4">
         <v>13</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:87" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
         <v>100</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="C5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
         <v>77</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5">
         <v>0</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5">
         <v>25</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5">
         <v>64</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5">
         <v>2</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5">
         <v>52</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5">
         <v>48</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5">
         <v>23</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5">
         <v>48</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5">
         <v>28</v>
       </c>
-      <c r="O5" t="n">
+      <c r="P5">
         <v>0</v>
       </c>
-      <c r="P5" t="n">
+      <c r="Q5">
         <v>42</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="R5">
         <v>25</v>
       </c>
-      <c r="R5" t="n">
+      <c r="S5">
         <v>2</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5">
         <v>66</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5">
         <v>44</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5">
         <v>45</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5">
         <v>46</v>
       </c>
-      <c r="W5" t="n">
-        <v>1</v>
-      </c>
-      <c r="X5" t="n">
+      <c r="X5">
+        <v>1</v>
+      </c>
+      <c r="Y5">
         <v>49</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="Z5">
         <v>26</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="AA5">
         <v>22</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AB5">
         <v>22</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AC5">
         <v>19</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AD5">
         <v>51</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AE5">
         <v>25</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AF5">
         <v>2</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AG5">
         <v>64</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AH5">
         <v>4</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AI5">
         <v>75</v>
       </c>
-      <c r="AI5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ5" t="n">
+      <c r="AJ5">
+        <v>1</v>
+      </c>
+      <c r="AK5">
         <v>29</v>
       </c>
-      <c r="AK5" t="n">
+      <c r="AL5">
         <v>70</v>
       </c>
-      <c r="AL5" t="n">
+      <c r="AM5">
         <v>13</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AN5">
         <v>2</v>
       </c>
-      <c r="AN5" t="n">
+      <c r="AO5">
         <v>93</v>
       </c>
-      <c r="AO5" t="n">
+      <c r="AP5">
         <v>15</v>
       </c>
-      <c r="AP5" t="n">
+      <c r="AQ5">
         <v>7</v>
       </c>
-      <c r="AQ5" t="n">
+      <c r="AR5">
         <v>58</v>
       </c>
-      <c r="AR5" t="n">
+      <c r="AS5">
         <v>30</v>
       </c>
-      <c r="AS5" t="n">
+      <c r="AT5">
         <v>7</v>
       </c>
-      <c r="AT5" t="n">
+      <c r="AU5">
         <v>42</v>
       </c>
-      <c r="AU5" t="n">
+      <c r="AV5">
         <v>41</v>
       </c>
-      <c r="AV5" t="n">
+      <c r="AW5">
         <v>20</v>
       </c>
-      <c r="AW5" t="n">
+      <c r="AX5">
         <v>45</v>
       </c>
-      <c r="AX5" t="n">
+      <c r="AY5">
         <v>20</v>
       </c>
-      <c r="AY5" t="n">
+      <c r="AZ5">
         <v>5</v>
       </c>
-      <c r="AZ5" t="n">
+      <c r="BA5">
         <v>36</v>
       </c>
-      <c r="BA5" t="n">
+      <c r="BB5">
         <v>40</v>
       </c>
-      <c r="BB5" t="n">
+      <c r="BC5">
         <v>6</v>
       </c>
-      <c r="BC5" t="n">
+      <c r="BD5">
         <v>87</v>
       </c>
-      <c r="BD5" t="n">
+      <c r="BE5">
         <v>3</v>
       </c>
-      <c r="BE5" t="n">
+      <c r="BF5">
         <v>18</v>
       </c>
-      <c r="BF5" t="n">
+      <c r="BG5">
         <v>78</v>
       </c>
-      <c r="BG5" t="n">
+      <c r="BH5">
         <v>2</v>
       </c>
-      <c r="BH5" t="n">
+      <c r="BI5">
         <v>35</v>
       </c>
-      <c r="BI5" t="n">
+      <c r="BJ5">
         <v>22</v>
       </c>
-      <c r="BJ5" t="n">
+      <c r="BK5">
         <v>16</v>
       </c>
-      <c r="BK5" t="n">
+      <c r="BL5">
         <v>3</v>
       </c>
-      <c r="BL5" t="n">
+      <c r="BM5">
         <v>75</v>
       </c>
-      <c r="BM5" t="n">
+      <c r="BN5">
         <v>9</v>
       </c>
-      <c r="BN5" t="n">
+      <c r="BO5">
         <v>54</v>
       </c>
-      <c r="BO5" t="n">
+      <c r="BP5">
         <v>12</v>
       </c>
-      <c r="BP5" t="n">
+      <c r="BQ5">
         <v>32</v>
       </c>
-      <c r="BQ5" t="n">
+      <c r="BR5">
         <v>8</v>
       </c>
-      <c r="BR5" t="n">
+      <c r="BS5">
         <v>95</v>
       </c>
-      <c r="BS5" t="n">
+      <c r="BT5">
         <v>3</v>
       </c>
-      <c r="BT5" t="n">
+      <c r="BU5">
         <v>90</v>
       </c>
-      <c r="BU5" t="n">
+      <c r="BV5">
         <v>2</v>
       </c>
-      <c r="BV5" t="n">
+      <c r="BW5">
         <v>2</v>
       </c>
-      <c r="BW5" t="n">
+      <c r="BX5">
         <v>21</v>
       </c>
-      <c r="BX5" t="n">
+      <c r="BY5">
         <v>43</v>
       </c>
-      <c r="BY5" t="n">
+      <c r="BZ5">
         <v>25</v>
       </c>
-      <c r="BZ5" t="n">
+      <c r="CA5">
         <v>16</v>
       </c>
-      <c r="CA5" t="n">
+      <c r="CB5">
         <v>33</v>
       </c>
-      <c r="CB5" t="n">
+      <c r="CC5">
         <v>41</v>
       </c>
-      <c r="CC5" t="n">
+      <c r="CD5">
         <v>30</v>
       </c>
-      <c r="CD5" t="n">
+      <c r="CE5">
         <v>41</v>
       </c>
-      <c r="CE5" t="n">
+      <c r="CF5">
         <v>13</v>
       </c>
-      <c r="CF5" t="n">
+      <c r="CG5">
         <v>4</v>
       </c>
-      <c r="CG5" t="n">
+      <c r="CH5">
         <v>16</v>
       </c>
-      <c r="CH5" t="n">
+      <c r="CI5">
         <v>80</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:87" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
         <v>100</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+      <c r="C6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6">
         <v>18</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6">
         <v>67</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6">
         <v>31</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6">
         <v>28</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6">
         <v>67</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6">
         <v>11</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6">
         <v>27</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6">
         <v>53</v>
       </c>
-      <c r="K6" t="n">
+      <c r="L6">
         <v>2</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6">
         <v>23</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6">
         <v>10</v>
       </c>
-      <c r="N6" t="n">
+      <c r="O6">
         <v>48</v>
       </c>
-      <c r="O6" t="n">
+      <c r="P6">
         <v>97</v>
       </c>
-      <c r="P6" t="n">
+      <c r="Q6">
         <v>4</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="R6">
         <v>10</v>
       </c>
-      <c r="R6" t="n">
+      <c r="S6">
         <v>20</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6">
         <v>30</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6">
         <v>74</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6">
         <v>56</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6">
         <v>46</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6">
         <v>4</v>
       </c>
-      <c r="X6" t="n">
+      <c r="Y6">
         <v>66</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="Z6">
         <v>23</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="AA6">
         <v>2</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AB6">
         <v>68</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AC6">
         <v>3</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AD6">
         <v>8</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AE6">
         <v>43</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AF6">
         <v>5</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AG6">
         <v>39</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AH6">
         <v>17</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AI6">
         <v>22</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AJ6">
         <v>65</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AK6">
         <v>11</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="AL6">
         <v>91</v>
       </c>
-      <c r="AL6" t="n">
+      <c r="AM6">
         <v>15</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AN6">
         <v>59</v>
       </c>
-      <c r="AN6" t="n">
+      <c r="AO6">
         <v>48</v>
       </c>
-      <c r="AO6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP6" t="n">
+      <c r="AP6">
+        <v>1</v>
+      </c>
+      <c r="AQ6">
         <v>5</v>
       </c>
-      <c r="AQ6" t="n">
+      <c r="AR6">
         <v>35</v>
       </c>
-      <c r="AR6" t="n">
+      <c r="AS6">
         <v>53</v>
       </c>
-      <c r="AS6" t="n">
+      <c r="AT6">
         <v>19</v>
       </c>
-      <c r="AT6" t="n">
+      <c r="AU6">
         <v>58</v>
       </c>
-      <c r="AU6" t="n">
+      <c r="AV6">
         <v>11</v>
       </c>
-      <c r="AV6" t="n">
+      <c r="AW6">
         <v>2</v>
       </c>
-      <c r="AW6" t="n">
+      <c r="AX6">
         <v>81</v>
       </c>
-      <c r="AX6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY6" t="n">
+      <c r="AY6">
+        <v>1</v>
+      </c>
+      <c r="AZ6">
         <v>25</v>
       </c>
-      <c r="AZ6" t="n">
+      <c r="BA6">
         <v>20</v>
       </c>
-      <c r="BA6" t="n">
+      <c r="BB6">
         <v>48</v>
       </c>
-      <c r="BB6" t="n">
+      <c r="BC6">
         <v>49</v>
       </c>
-      <c r="BC6" t="n">
+      <c r="BD6">
         <v>8</v>
       </c>
-      <c r="BD6" t="n">
+      <c r="BE6">
         <v>41</v>
       </c>
-      <c r="BE6" t="n">
+      <c r="BF6">
         <v>21</v>
       </c>
-      <c r="BF6" t="n">
+      <c r="BG6">
         <v>93</v>
       </c>
-      <c r="BG6" t="n">
+      <c r="BH6">
         <v>3</v>
       </c>
-      <c r="BH6" t="n">
+      <c r="BI6">
         <v>28</v>
       </c>
-      <c r="BI6" t="n">
+      <c r="BJ6">
         <v>39</v>
       </c>
-      <c r="BJ6" t="n">
+      <c r="BK6">
         <v>18</v>
       </c>
-      <c r="BK6" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL6" t="n">
+      <c r="BL6">
+        <v>1</v>
+      </c>
+      <c r="BM6">
         <v>66</v>
       </c>
-      <c r="BM6" t="n">
+      <c r="BN6">
         <v>25</v>
       </c>
-      <c r="BN6" t="n">
+      <c r="BO6">
         <v>41</v>
       </c>
-      <c r="BO6" t="n">
+      <c r="BP6">
         <v>36</v>
       </c>
-      <c r="BP6" t="n">
+      <c r="BQ6">
         <v>3</v>
       </c>
-      <c r="BQ6" t="n">
+      <c r="BR6">
         <v>23</v>
       </c>
-      <c r="BR6" t="n">
+      <c r="BS6">
         <v>52</v>
       </c>
-      <c r="BS6" t="n">
+      <c r="BT6">
         <v>38</v>
       </c>
-      <c r="BT6" t="n">
+      <c r="BU6">
         <v>42</v>
       </c>
-      <c r="BU6" t="n">
+      <c r="BV6">
         <v>30</v>
       </c>
-      <c r="BV6" t="n">
+      <c r="BW6">
         <v>17</v>
       </c>
-      <c r="BW6" t="n">
+      <c r="BX6">
         <v>3</v>
       </c>
-      <c r="BX6" t="n">
+      <c r="BY6">
         <v>69</v>
       </c>
-      <c r="BY6" t="n">
+      <c r="BZ6">
         <v>3</v>
       </c>
-      <c r="BZ6" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA6" t="n">
+      <c r="CA6">
+        <v>1</v>
+      </c>
+      <c r="CB6">
         <v>83</v>
       </c>
-      <c r="CB6" t="n">
+      <c r="CC6">
         <v>17</v>
       </c>
-      <c r="CC6" t="n">
+      <c r="CD6">
         <v>15</v>
       </c>
-      <c r="CD6" t="n">
+      <c r="CE6">
         <v>99</v>
       </c>
-      <c r="CE6" t="n">
+      <c r="CF6">
         <v>8</v>
       </c>
-      <c r="CF6" t="n">
+      <c r="CG6">
         <v>6</v>
       </c>
-      <c r="CG6" t="n">
+      <c r="CH6">
         <v>83</v>
       </c>
-      <c r="CH6" t="n">
+      <c r="CI6">
         <v>27</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="7" spans="1:87" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
         <v>100</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
+      <c r="C7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
         <v>95</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7">
         <v>0</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7">
         <v>31</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7">
         <v>78</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7">
         <v>3</v>
       </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
         <v>63</v>
       </c>
-      <c r="K7" t="n">
+      <c r="L7">
         <v>58</v>
       </c>
-      <c r="L7" t="n">
+      <c r="M7">
         <v>28</v>
       </c>
-      <c r="M7" t="n">
+      <c r="N7">
         <v>59</v>
       </c>
-      <c r="N7" t="n">
+      <c r="O7">
         <v>35</v>
       </c>
-      <c r="O7" t="n">
+      <c r="P7">
         <v>0</v>
       </c>
-      <c r="P7" t="n">
+      <c r="Q7">
         <v>52</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="R7">
         <v>31</v>
       </c>
-      <c r="R7" t="n">
+      <c r="S7">
         <v>2</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7">
         <v>81</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7">
         <v>54</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7">
         <v>54</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7">
         <v>57</v>
       </c>
-      <c r="W7" t="n">
-        <v>1</v>
-      </c>
-      <c r="X7" t="n">
+      <c r="X7">
+        <v>1</v>
+      </c>
+      <c r="Y7">
         <v>61</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="Z7">
         <v>32</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="AA7">
         <v>26</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AB7">
         <v>27</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AC7">
         <v>23</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AD7">
         <v>63</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AE7">
         <v>31</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AF7">
         <v>3</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AG7">
         <v>77</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AH7">
         <v>5</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="AI7">
         <v>92</v>
       </c>
-      <c r="AI7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ7" t="n">
+      <c r="AJ7">
+        <v>1</v>
+      </c>
+      <c r="AK7">
         <v>36</v>
       </c>
-      <c r="AK7" t="n">
+      <c r="AL7">
         <v>85</v>
       </c>
-      <c r="AL7" t="n">
+      <c r="AM7">
         <v>15</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AN7">
         <v>3</v>
       </c>
-      <c r="AN7" t="n">
+      <c r="AO7">
         <v>114</v>
       </c>
-      <c r="AO7" t="n">
+      <c r="AP7">
         <v>18</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AQ7">
         <v>8</v>
       </c>
-      <c r="AQ7" t="n">
+      <c r="AR7">
         <v>71</v>
       </c>
-      <c r="AR7" t="n">
+      <c r="AS7">
         <v>38</v>
       </c>
-      <c r="AS7" t="n">
+      <c r="AT7">
         <v>8</v>
       </c>
-      <c r="AT7" t="n">
+      <c r="AU7">
         <v>52</v>
       </c>
-      <c r="AU7" t="n">
+      <c r="AV7">
         <v>50</v>
       </c>
-      <c r="AV7" t="n">
+      <c r="AW7">
         <v>25</v>
       </c>
-      <c r="AW7" t="n">
+      <c r="AX7">
         <v>55</v>
       </c>
-      <c r="AX7" t="n">
+      <c r="AY7">
         <v>24</v>
       </c>
-      <c r="AY7" t="n">
+      <c r="AZ7">
         <v>6</v>
       </c>
-      <c r="AZ7" t="n">
+      <c r="BA7">
         <v>44</v>
       </c>
-      <c r="BA7" t="n">
+      <c r="BB7">
         <v>49</v>
       </c>
-      <c r="BB7" t="n">
+      <c r="BC7">
         <v>8</v>
       </c>
-      <c r="BC7" t="n">
+      <c r="BD7">
         <v>107</v>
       </c>
-      <c r="BD7" t="n">
+      <c r="BE7">
         <v>3</v>
       </c>
-      <c r="BE7" t="n">
+      <c r="BF7">
         <v>21</v>
       </c>
-      <c r="BF7" t="n">
+      <c r="BG7">
         <v>96</v>
       </c>
-      <c r="BG7" t="n">
+      <c r="BH7">
         <v>3</v>
       </c>
-      <c r="BH7" t="n">
+      <c r="BI7">
         <v>43</v>
       </c>
-      <c r="BI7" t="n">
+      <c r="BJ7">
         <v>27</v>
       </c>
-      <c r="BJ7" t="n">
+      <c r="BK7">
         <v>20</v>
       </c>
-      <c r="BK7" t="n">
+      <c r="BL7">
         <v>3</v>
       </c>
-      <c r="BL7" t="n">
+      <c r="BM7">
         <v>92</v>
       </c>
-      <c r="BM7" t="n">
+      <c r="BN7">
         <v>11</v>
       </c>
-      <c r="BN7" t="n">
+      <c r="BO7">
         <v>66</v>
       </c>
-      <c r="BO7" t="n">
+      <c r="BP7">
         <v>14</v>
       </c>
-      <c r="BP7" t="n">
+      <c r="BQ7">
         <v>40</v>
       </c>
-      <c r="BQ7" t="n">
+      <c r="BR7">
         <v>10</v>
       </c>
-      <c r="BR7" t="n">
+      <c r="BS7">
         <v>115</v>
       </c>
-      <c r="BS7" t="n">
+      <c r="BT7">
         <v>4</v>
       </c>
-      <c r="BT7" t="n">
+      <c r="BU7">
         <v>110</v>
       </c>
-      <c r="BU7" t="n">
+      <c r="BV7">
         <v>3</v>
       </c>
-      <c r="BV7" t="n">
+      <c r="BW7">
         <v>2</v>
       </c>
-      <c r="BW7" t="n">
+      <c r="BX7">
         <v>26</v>
       </c>
-      <c r="BX7" t="n">
+      <c r="BY7">
         <v>52</v>
       </c>
-      <c r="BY7" t="n">
+      <c r="BZ7">
         <v>31</v>
       </c>
-      <c r="BZ7" t="n">
+      <c r="CA7">
         <v>19</v>
       </c>
-      <c r="CA7" t="n">
+      <c r="CB7">
         <v>41</v>
       </c>
-      <c r="CB7" t="n">
+      <c r="CC7">
         <v>51</v>
       </c>
-      <c r="CC7" t="n">
+      <c r="CD7">
         <v>37</v>
       </c>
-      <c r="CD7" t="n">
+      <c r="CE7">
         <v>50</v>
       </c>
-      <c r="CE7" t="n">
+      <c r="CF7">
         <v>16</v>
       </c>
-      <c r="CF7" t="n">
+      <c r="CG7">
         <v>5</v>
       </c>
-      <c r="CG7" t="n">
+      <c r="CH7">
         <v>20</v>
       </c>
-      <c r="CH7" t="n">
+      <c r="CI7">
         <v>98</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="8" spans="1:87" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
         <v>150</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
+      <c r="C8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8">
         <v>97</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8">
         <v>20</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8">
         <v>8</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8">
         <v>69</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8">
         <v>59</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8">
         <v>22</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8">
         <v>13</v>
       </c>
-      <c r="J8" t="n">
+      <c r="K8">
         <v>79</v>
       </c>
-      <c r="K8" t="n">
+      <c r="L8">
         <v>58</v>
       </c>
-      <c r="L8" t="n">
+      <c r="M8">
         <v>155</v>
       </c>
-      <c r="M8" t="n">
+      <c r="N8">
         <v>10</v>
       </c>
-      <c r="N8" t="n">
+      <c r="O8">
         <v>3</v>
       </c>
-      <c r="O8" t="n">
+      <c r="P8">
         <v>49</v>
       </c>
-      <c r="P8" t="n">
+      <c r="Q8">
         <v>60</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="R8">
         <v>39</v>
       </c>
-      <c r="R8" t="n">
+      <c r="S8">
         <v>10</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8">
         <v>77</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8">
         <v>35</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8">
         <v>90</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8">
         <v>28</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8">
         <v>5</v>
       </c>
-      <c r="X8" t="n">
+      <c r="Y8">
         <v>7</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="Z8">
         <v>124</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="AA8">
         <v>2</v>
       </c>
-      <c r="AA8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB8" t="n">
+      <c r="AB8">
+        <v>1</v>
+      </c>
+      <c r="AC8">
         <v>103</v>
       </c>
-      <c r="AC8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD8" t="n">
+      <c r="AD8">
+        <v>1</v>
+      </c>
+      <c r="AE8">
         <v>32</v>
       </c>
-      <c r="AE8" t="n">
+      <c r="AF8">
         <v>3</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="AG8">
         <v>94</v>
       </c>
-      <c r="AG8" t="n">
+      <c r="AH8">
         <v>20</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="AI8">
         <v>75</v>
       </c>
-      <c r="AI8" t="n">
+      <c r="AJ8">
         <v>14</v>
       </c>
-      <c r="AJ8" t="n">
+      <c r="AK8">
         <v>5</v>
       </c>
-      <c r="AK8" t="n">
+      <c r="AL8">
         <v>106</v>
       </c>
-      <c r="AL8" t="n">
+      <c r="AM8">
         <v>15</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AN8">
         <v>4</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AO8">
         <v>101</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AP8">
         <v>22</v>
       </c>
-      <c r="AP8" t="n">
+      <c r="AQ8">
         <v>19</v>
       </c>
-      <c r="AQ8" t="n">
+      <c r="AR8">
         <v>21</v>
       </c>
-      <c r="AR8" t="n">
+      <c r="AS8">
         <v>88</v>
       </c>
-      <c r="AS8" t="n">
+      <c r="AT8">
         <v>48</v>
       </c>
-      <c r="AT8" t="n">
+      <c r="AU8">
         <v>11</v>
       </c>
-      <c r="AU8" t="n">
+      <c r="AV8">
         <v>43</v>
       </c>
-      <c r="AV8" t="n">
+      <c r="AW8">
         <v>33</v>
       </c>
-      <c r="AW8" t="n">
+      <c r="AX8">
         <v>51</v>
       </c>
-      <c r="AX8" t="n">
+      <c r="AY8">
         <v>42</v>
       </c>
-      <c r="AY8" t="n">
+      <c r="AZ8">
         <v>80</v>
       </c>
-      <c r="AZ8" t="n">
+      <c r="BA8">
         <v>26</v>
       </c>
-      <c r="BA8" t="n">
+      <c r="BB8">
         <v>55</v>
       </c>
-      <c r="BB8" t="n">
+      <c r="BC8">
         <v>39</v>
       </c>
-      <c r="BC8" t="n">
+      <c r="BD8">
         <v>75</v>
       </c>
-      <c r="BD8" t="n">
+      <c r="BE8">
         <v>11</v>
       </c>
-      <c r="BE8" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF8" t="n">
+      <c r="BF8">
+        <v>1</v>
+      </c>
+      <c r="BG8">
         <v>88</v>
       </c>
-      <c r="BG8" t="n">
+      <c r="BH8">
         <v>22</v>
       </c>
-      <c r="BH8" t="n">
+      <c r="BI8">
         <v>0</v>
       </c>
-      <c r="BI8" t="n">
+      <c r="BJ8">
         <v>105</v>
       </c>
-      <c r="BJ8" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK8" t="n">
+      <c r="BK8">
+        <v>1</v>
+      </c>
+      <c r="BL8">
         <v>26</v>
       </c>
-      <c r="BL8" t="n">
+      <c r="BM8">
         <v>47</v>
       </c>
-      <c r="BM8" t="n">
+      <c r="BN8">
         <v>44</v>
       </c>
-      <c r="BN8" t="n">
+      <c r="BO8">
         <v>7</v>
       </c>
-      <c r="BO8" t="n">
+      <c r="BP8">
         <v>131</v>
       </c>
-      <c r="BP8" t="n">
+      <c r="BQ8">
         <v>17</v>
       </c>
-      <c r="BQ8" t="n">
+      <c r="BR8">
         <v>5</v>
       </c>
-      <c r="BR8" t="n">
+      <c r="BS8">
         <v>138</v>
       </c>
-      <c r="BS8" t="n">
+      <c r="BT8">
         <v>14</v>
       </c>
-      <c r="BT8" t="n">
+      <c r="BU8">
         <v>2</v>
       </c>
-      <c r="BU8" t="n">
+      <c r="BV8">
         <v>102</v>
       </c>
-      <c r="BV8" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW8" t="n">
+      <c r="BW8">
+        <v>1</v>
+      </c>
+      <c r="BX8">
         <v>11</v>
       </c>
-      <c r="BX8" t="n">
+      <c r="BY8">
         <v>52</v>
       </c>
-      <c r="BY8" t="n">
+      <c r="BZ8">
         <v>42</v>
       </c>
-      <c r="BZ8" t="n">
+      <c r="CA8">
         <v>96</v>
       </c>
-      <c r="CA8" t="n">
+      <c r="CB8">
         <v>10</v>
       </c>
-      <c r="CB8" t="n">
+      <c r="CC8">
         <v>53</v>
       </c>
-      <c r="CC8" t="n">
+      <c r="CD8">
         <v>40</v>
       </c>
-      <c r="CD8" t="n">
+      <c r="CE8">
         <v>43</v>
       </c>
-      <c r="CE8" t="n">
+      <c r="CF8">
         <v>32</v>
       </c>
-      <c r="CF8" t="n">
+      <c r="CG8">
         <v>28</v>
       </c>
-      <c r="CG8" t="n">
+      <c r="CH8">
         <v>73</v>
       </c>
-      <c r="CH8" t="n">
+      <c r="CI8">
         <v>23</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="9" spans="1:87" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
         <v>150</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
+      <c r="C9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9">
         <v>108</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9">
         <v>22</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9">
         <v>9</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9">
         <v>77</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9">
         <v>66</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9">
         <v>24</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9">
         <v>14</v>
       </c>
-      <c r="J9" t="n">
+      <c r="K9">
         <v>88</v>
       </c>
-      <c r="K9" t="n">
+      <c r="L9">
         <v>65</v>
       </c>
-      <c r="L9" t="n">
+      <c r="M9">
         <v>171</v>
       </c>
-      <c r="M9" t="n">
+      <c r="N9">
         <v>12</v>
       </c>
-      <c r="N9" t="n">
+      <c r="O9">
         <v>4</v>
       </c>
-      <c r="O9" t="n">
+      <c r="P9">
         <v>56</v>
       </c>
-      <c r="P9" t="n">
+      <c r="Q9">
         <v>66</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="R9">
         <v>43</v>
       </c>
-      <c r="R9" t="n">
+      <c r="S9">
         <v>11</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9">
         <v>86</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9">
         <v>39</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9">
         <v>100</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9">
         <v>32</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9">
         <v>5</v>
       </c>
-      <c r="X9" t="n">
+      <c r="Y9">
         <v>7</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="Z9">
         <v>138</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="AA9">
         <v>3</v>
       </c>
-      <c r="AA9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB9" t="n">
+      <c r="AB9">
+        <v>1</v>
+      </c>
+      <c r="AC9">
         <v>115</v>
       </c>
-      <c r="AC9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD9" t="n">
+      <c r="AD9">
+        <v>1</v>
+      </c>
+      <c r="AE9">
         <v>36</v>
       </c>
-      <c r="AE9" t="n">
+      <c r="AF9">
         <v>3</v>
       </c>
-      <c r="AF9" t="n">
+      <c r="AG9">
         <v>105</v>
       </c>
-      <c r="AG9" t="n">
+      <c r="AH9">
         <v>22</v>
       </c>
-      <c r="AH9" t="n">
+      <c r="AI9">
         <v>83</v>
       </c>
-      <c r="AI9" t="n">
+      <c r="AJ9">
         <v>16</v>
       </c>
-      <c r="AJ9" t="n">
+      <c r="AK9">
         <v>5</v>
       </c>
-      <c r="AK9" t="n">
+      <c r="AL9">
         <v>118</v>
       </c>
-      <c r="AL9" t="n">
+      <c r="AM9">
         <v>17</v>
       </c>
-      <c r="AM9" t="n">
+      <c r="AN9">
         <v>5</v>
       </c>
-      <c r="AN9" t="n">
+      <c r="AO9">
         <v>112</v>
       </c>
-      <c r="AO9" t="n">
+      <c r="AP9">
         <v>24</v>
       </c>
-      <c r="AP9" t="n">
+      <c r="AQ9">
         <v>20</v>
       </c>
-      <c r="AQ9" t="n">
+      <c r="AR9">
         <v>24</v>
       </c>
-      <c r="AR9" t="n">
+      <c r="AS9">
         <v>98</v>
       </c>
-      <c r="AS9" t="n">
+      <c r="AT9">
         <v>54</v>
       </c>
-      <c r="AT9" t="n">
+      <c r="AU9">
         <v>12</v>
       </c>
-      <c r="AU9" t="n">
+      <c r="AV9">
         <v>48</v>
       </c>
-      <c r="AV9" t="n">
+      <c r="AW9">
         <v>36</v>
       </c>
-      <c r="AW9" t="n">
+      <c r="AX9">
         <v>57</v>
       </c>
-      <c r="AX9" t="n">
+      <c r="AY9">
         <v>47</v>
       </c>
-      <c r="AY9" t="n">
+      <c r="AZ9">
         <v>90</v>
       </c>
-      <c r="AZ9" t="n">
+      <c r="BA9">
         <v>28</v>
       </c>
-      <c r="BA9" t="n">
+      <c r="BB9">
         <v>61</v>
       </c>
-      <c r="BB9" t="n">
+      <c r="BC9">
         <v>44</v>
       </c>
-      <c r="BC9" t="n">
+      <c r="BD9">
         <v>83</v>
       </c>
-      <c r="BD9" t="n">
+      <c r="BE9">
         <v>12</v>
       </c>
-      <c r="BE9" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF9" t="n">
+      <c r="BF9">
+        <v>1</v>
+      </c>
+      <c r="BG9">
         <v>97</v>
       </c>
-      <c r="BG9" t="n">
+      <c r="BH9">
         <v>25</v>
       </c>
-      <c r="BH9" t="n">
+      <c r="BI9">
         <v>0</v>
       </c>
-      <c r="BI9" t="n">
+      <c r="BJ9">
         <v>117</v>
       </c>
-      <c r="BJ9" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK9" t="n">
+      <c r="BK9">
+        <v>1</v>
+      </c>
+      <c r="BL9">
         <v>29</v>
       </c>
-      <c r="BL9" t="n">
+      <c r="BM9">
         <v>52</v>
       </c>
-      <c r="BM9" t="n">
+      <c r="BN9">
         <v>49</v>
       </c>
-      <c r="BN9" t="n">
+      <c r="BO9">
         <v>8</v>
       </c>
-      <c r="BO9" t="n">
+      <c r="BP9">
         <v>145</v>
       </c>
-      <c r="BP9" t="n">
+      <c r="BQ9">
         <v>19</v>
       </c>
-      <c r="BQ9" t="n">
+      <c r="BR9">
         <v>5</v>
       </c>
-      <c r="BR9" t="n">
+      <c r="BS9">
         <v>153</v>
       </c>
-      <c r="BS9" t="n">
+      <c r="BT9">
         <v>17</v>
       </c>
-      <c r="BT9" t="n">
+      <c r="BU9">
         <v>2</v>
       </c>
-      <c r="BU9" t="n">
+      <c r="BV9">
         <v>114</v>
       </c>
-      <c r="BV9" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW9" t="n">
+      <c r="BW9">
+        <v>1</v>
+      </c>
+      <c r="BX9">
         <v>13</v>
       </c>
-      <c r="BX9" t="n">
+      <c r="BY9">
         <v>58</v>
       </c>
-      <c r="BY9" t="n">
+      <c r="BZ9">
         <v>46</v>
       </c>
-      <c r="BZ9" t="n">
+      <c r="CA9">
         <v>107</v>
       </c>
-      <c r="CA9" t="n">
+      <c r="CB9">
         <v>11</v>
       </c>
-      <c r="CB9" t="n">
+      <c r="CC9">
         <v>59</v>
       </c>
-      <c r="CC9" t="n">
+      <c r="CD9">
         <v>45</v>
       </c>
-      <c r="CD9" t="n">
+      <c r="CE9">
         <v>48</v>
       </c>
-      <c r="CE9" t="n">
+      <c r="CF9">
         <v>35</v>
       </c>
-      <c r="CF9" t="n">
+      <c r="CG9">
         <v>31</v>
       </c>
-      <c r="CG9" t="n">
+      <c r="CH9">
         <v>81</v>
       </c>
-      <c r="CH9" t="n">
+      <c r="CI9">
         <v>26</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row r="10" spans="1:87" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
         <v>150</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
+      <c r="C10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10">
         <v>119</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10">
         <v>24</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10">
         <v>10</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10">
         <v>85</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10">
         <v>72</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10">
         <v>27</v>
       </c>
-      <c r="I10" t="n">
+      <c r="J10">
         <v>16</v>
       </c>
-      <c r="J10" t="n">
+      <c r="K10">
         <v>97</v>
       </c>
-      <c r="K10" t="n">
+      <c r="L10">
         <v>71</v>
       </c>
-      <c r="L10" t="n">
+      <c r="M10">
         <v>189</v>
       </c>
-      <c r="M10" t="n">
+      <c r="N10">
         <v>13</v>
       </c>
-      <c r="N10" t="n">
+      <c r="O10">
         <v>4</v>
       </c>
-      <c r="O10" t="n">
+      <c r="P10">
         <v>61</v>
       </c>
-      <c r="P10" t="n">
+      <c r="Q10">
         <v>73</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="R10">
         <v>47</v>
       </c>
-      <c r="R10" t="n">
+      <c r="S10">
         <v>12</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10">
         <v>95</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10">
         <v>43</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10">
         <v>110</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10">
         <v>35</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10">
         <v>6</v>
       </c>
-      <c r="X10" t="n">
+      <c r="Y10">
         <v>8</v>
       </c>
-      <c r="Y10" t="n">
+      <c r="Z10">
         <v>152</v>
       </c>
-      <c r="Z10" t="n">
+      <c r="AA10">
         <v>3</v>
       </c>
-      <c r="AA10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB10" t="n">
+      <c r="AB10">
+        <v>1</v>
+      </c>
+      <c r="AC10">
         <v>126</v>
       </c>
-      <c r="AC10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD10" t="n">
+      <c r="AD10">
+        <v>1</v>
+      </c>
+      <c r="AE10">
         <v>39</v>
       </c>
-      <c r="AE10" t="n">
+      <c r="AF10">
         <v>4</v>
       </c>
-      <c r="AF10" t="n">
+      <c r="AG10">
         <v>115</v>
       </c>
-      <c r="AG10" t="n">
+      <c r="AH10">
         <v>25</v>
       </c>
-      <c r="AH10" t="n">
+      <c r="AI10">
         <v>91</v>
       </c>
-      <c r="AI10" t="n">
+      <c r="AJ10">
         <v>17</v>
       </c>
-      <c r="AJ10" t="n">
+      <c r="AK10">
         <v>5</v>
       </c>
-      <c r="AK10" t="n">
+      <c r="AL10">
         <v>130</v>
       </c>
-      <c r="AL10" t="n">
+      <c r="AM10">
         <v>19</v>
       </c>
-      <c r="AM10" t="n">
+      <c r="AN10">
         <v>5</v>
       </c>
-      <c r="AN10" t="n">
+      <c r="AO10">
         <v>124</v>
       </c>
-      <c r="AO10" t="n">
+      <c r="AP10">
         <v>27</v>
       </c>
-      <c r="AP10" t="n">
+      <c r="AQ10">
         <v>23</v>
       </c>
-      <c r="AQ10" t="n">
+      <c r="AR10">
         <v>26</v>
       </c>
-      <c r="AR10" t="n">
+      <c r="AS10">
         <v>107</v>
       </c>
-      <c r="AS10" t="n">
+      <c r="AT10">
         <v>59</v>
       </c>
-      <c r="AT10" t="n">
+      <c r="AU10">
         <v>13</v>
       </c>
-      <c r="AU10" t="n">
+      <c r="AV10">
         <v>53</v>
       </c>
-      <c r="AV10" t="n">
+      <c r="AW10">
         <v>40</v>
       </c>
-      <c r="AW10" t="n">
+      <c r="AX10">
         <v>63</v>
       </c>
-      <c r="AX10" t="n">
+      <c r="AY10">
         <v>51</v>
       </c>
-      <c r="AY10" t="n">
+      <c r="AZ10">
         <v>98</v>
       </c>
-      <c r="AZ10" t="n">
+      <c r="BA10">
         <v>31</v>
       </c>
-      <c r="BA10" t="n">
+      <c r="BB10">
         <v>68</v>
       </c>
-      <c r="BB10" t="n">
+      <c r="BC10">
         <v>48</v>
       </c>
-      <c r="BC10" t="n">
+      <c r="BD10">
         <v>92</v>
       </c>
-      <c r="BD10" t="n">
+      <c r="BE10">
         <v>13</v>
       </c>
-      <c r="BE10" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF10" t="n">
+      <c r="BF10">
+        <v>1</v>
+      </c>
+      <c r="BG10">
         <v>107</v>
       </c>
-      <c r="BG10" t="n">
+      <c r="BH10">
         <v>27</v>
       </c>
-      <c r="BH10" t="n">
+      <c r="BI10">
         <v>0</v>
       </c>
-      <c r="BI10" t="n">
+      <c r="BJ10">
         <v>129</v>
       </c>
-      <c r="BJ10" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK10" t="n">
+      <c r="BK10">
+        <v>1</v>
+      </c>
+      <c r="BL10">
         <v>32</v>
       </c>
-      <c r="BL10" t="n">
+      <c r="BM10">
         <v>57</v>
       </c>
-      <c r="BM10" t="n">
+      <c r="BN10">
         <v>54</v>
       </c>
-      <c r="BN10" t="n">
+      <c r="BO10">
         <v>9</v>
       </c>
-      <c r="BO10" t="n">
+      <c r="BP10">
         <v>159</v>
       </c>
-      <c r="BP10" t="n">
+      <c r="BQ10">
         <v>21</v>
       </c>
-      <c r="BQ10" t="n">
+      <c r="BR10">
         <v>6</v>
       </c>
-      <c r="BR10" t="n">
+      <c r="BS10">
         <v>168</v>
       </c>
-      <c r="BS10" t="n">
+      <c r="BT10">
         <v>18</v>
       </c>
-      <c r="BT10" t="n">
+      <c r="BU10">
         <v>2</v>
       </c>
-      <c r="BU10" t="n">
+      <c r="BV10">
         <v>125</v>
       </c>
-      <c r="BV10" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW10" t="n">
+      <c r="BW10">
+        <v>1</v>
+      </c>
+      <c r="BX10">
         <v>14</v>
       </c>
-      <c r="BX10" t="n">
+      <c r="BY10">
         <v>63</v>
       </c>
-      <c r="BY10" t="n">
+      <c r="BZ10">
         <v>51</v>
       </c>
-      <c r="BZ10" t="n">
+      <c r="CA10">
         <v>118</v>
       </c>
-      <c r="CA10" t="n">
+      <c r="CB10">
         <v>12</v>
       </c>
-      <c r="CB10" t="n">
+      <c r="CC10">
         <v>65</v>
       </c>
-      <c r="CC10" t="n">
+      <c r="CD10">
         <v>49</v>
       </c>
-      <c r="CD10" t="n">
+      <c r="CE10">
         <v>53</v>
       </c>
-      <c r="CE10" t="n">
+      <c r="CF10">
         <v>39</v>
       </c>
-      <c r="CF10" t="n">
+      <c r="CG10">
         <v>34</v>
       </c>
-      <c r="CG10" t="n">
+      <c r="CH10">
         <v>90</v>
       </c>
-      <c r="CH10" t="n">
+      <c r="CI10">
         <v>28</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>